--- a/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud\Uni\Proseminare\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7F5789-1410-4CC1-BF86-D5D9B78FB80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0AF1E8-D65D-45B6-AA49-082C8679C33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1481" yWindow="1399" windowWidth="21559" windowHeight="11316" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -115,6 +115,27 @@
   </si>
   <si>
     <t>Finalisieren der Konzeptbeschreibung, Erstellen von Issues und Milestones</t>
+  </si>
+  <si>
+    <t>Festlegen der REST Endpoints</t>
+  </si>
+  <si>
+    <t>Projektplan</t>
+  </si>
+  <si>
+    <t>Aufsetzen skeleton und Implenentierung des Logins mit JWT Tokens</t>
+  </si>
+  <si>
+    <t>Ausbessern der SW-Architektur in der Konzeptbeschreibung</t>
+  </si>
+  <si>
+    <t>Setup MySQL database and integrate in backend</t>
+  </si>
+  <si>
+    <t>Teammeeting</t>
+  </si>
+  <si>
+    <t>Fix Git Branches</t>
   </si>
 </sst>
 </file>
@@ -530,7 +551,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
@@ -682,44 +703,116 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="8">
+        <v>44277</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>44281</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8">
+        <v>44283</v>
+      </c>
+      <c r="B13" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8">
+        <v>44283</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>44284</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B18" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud\Uni\Proseminare\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0AF1E8-D65D-45B6-AA49-082C8679C33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434DB47E-A40C-421A-AFD8-2F7549640412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Fix Git Branches</t>
+  </si>
+  <si>
+    <t>Überarbeitung von JWT Tokens und UserService</t>
+  </si>
+  <si>
+    <t>Implementierung des UserServices und der Controller</t>
   </si>
 </sst>
 </file>
@@ -551,7 +557,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
@@ -815,19 +821,46 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>44296</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud\Uni\Proseminare\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434DB47E-A40C-421A-AFD8-2F7549640412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE216F07-EC01-440D-AA55-6FD3606F6A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Implementierung des UserServices und der Controller</t>
+  </si>
+  <si>
+    <t>Konfiguration von CORS und whitelisting REST Endpoints für authenticaton</t>
+  </si>
+  <si>
+    <t>Arbeit an User Service</t>
+  </si>
+  <si>
+    <t>Fertigstellung von UserService und UserController</t>
+  </si>
+  <si>
+    <t>Testen des Frontends und fixen von Bugs in UserController</t>
   </si>
 </sst>
 </file>
@@ -554,10 +566,10 @@
   <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
@@ -863,34 +875,88 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B22" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>44303</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud\Uni\Proseminare\Softwareengineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Nextcloud\Uni\Proseminare\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE216F07-EC01-440D-AA55-6FD3606F6A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D08121-A793-4915-AE18-CBC8C40BD3EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>Testen des Frontends und fixen von Bugs in UserController</t>
+  </si>
+  <si>
+    <t>Besprechung Test Workshop</t>
+  </si>
+  <si>
+    <t>WS6: Testing</t>
+  </si>
+  <si>
+    <t>Bugfixing und schreiben der UserController Tests</t>
+  </si>
+  <si>
+    <t>Dokumentierung der User Klassen und Refactoring</t>
+  </si>
+  <si>
+    <t>WebSockets Authentifizierung</t>
   </si>
 </sst>
 </file>
@@ -566,21 +581,21 @@
   <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="31.95">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="31.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -959,29 +974,74 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>44305</v>
+      </c>
+      <c r="B29" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B31" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>44310</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8"/>
@@ -5855,9 +5915,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Nextcloud\Uni\Proseminare\Softwareengineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud\Uni\Proseminare\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D08121-A793-4915-AE18-CBC8C40BD3EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BE2F5C-9261-42CF-B764-DA6DD407D30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>WebSockets Authentifizierung</t>
+  </si>
+  <si>
+    <t>Enabling cors for websockets</t>
+  </si>
+  <si>
+    <t>Fixing Cors and WebSocket Authentication settings</t>
+  </si>
+  <si>
+    <t>BugFixing UserService und Implementierung Endpoint</t>
+  </si>
+  <si>
+    <t>Dockerizing Backend</t>
   </si>
 </sst>
 </file>
@@ -581,21 +593,21 @@
   <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="31.5">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="31.95">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1044,39 +1056,102 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>44312</v>
+      </c>
+      <c r="B34" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="8">
+        <v>44315</v>
+      </c>
+      <c r="B35" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B37" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8"/>
@@ -5915,9 +5990,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud\Uni\Proseminare\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BE2F5C-9261-42CF-B764-DA6DD407D30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4B9246-D6C6-42E7-92DF-F5992C90A148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>Datum</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>Dockerizing Backend</t>
+  </si>
+  <si>
+    <t>Finalisierung der Dockerisierung der Anwendung</t>
+  </si>
+  <si>
+    <t>Hinzufügen von Prüfungen in UserService und CORS Debugging</t>
+  </si>
+  <si>
+    <t>Testen der Installationsskripts auf eigenen Raspberry und Fixes</t>
+  </si>
+  <si>
+    <t>Kleine Änderungen im UserController</t>
   </si>
 </sst>
 </file>
@@ -593,10 +605,10 @@
   <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
@@ -1133,7 +1145,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>47</v>
@@ -1154,29 +1166,74 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B41" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B44" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud\Uni\Proseminare\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4B9246-D6C6-42E7-92DF-F5992C90A148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E2E401-6CDE-4EF5-BFF4-8CEA9D6208DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Kleine Änderungen im UserController</t>
+  </si>
+  <si>
+    <t>Teammeeting zu Testdrehbuch</t>
   </si>
 </sst>
 </file>
@@ -605,10 +608,10 @@
   <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
@@ -1236,14 +1239,32 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B45" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B46" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud\Uni\Proseminare\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E2E401-6CDE-4EF5-BFF4-8CEA9D6208DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1D0D08-EF24-453D-A729-2744424B5DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>Teammeeting zu Testdrehbuch</t>
+  </si>
+  <si>
+    <t>Testen der UseCases und Suche nach Bugs</t>
+  </si>
+  <si>
+    <t>Finales Durchgehen der Systemtests mit Team</t>
+  </si>
+  <si>
+    <t>Eigenständige Ergänzung/Korrektur des Testdrehbuchs</t>
   </si>
 </sst>
 </file>
@@ -608,10 +617,10 @@
   <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
@@ -1267,24 +1276,60 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>44330</v>
+      </c>
+      <c r="B47" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="8">
+        <v>44333</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8">
+        <v>44335</v>
+      </c>
+      <c r="B49" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>44339</v>
+      </c>
+      <c r="B50" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud\Uni\Proseminare\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1D0D08-EF24-453D-A729-2744424B5DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3174A-4F37-472D-93DA-C96726CF27DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Eigenständige Ergänzung/Korrektur des Testdrehbuchs</t>
+  </si>
+  <si>
+    <t>Fixen von falschen Berechtigungen und Cleanup</t>
+  </si>
+  <si>
+    <t>Fixen der GameController Tests</t>
   </si>
 </sst>
 </file>
@@ -617,10 +623,10 @@
   <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
@@ -1332,14 +1338,32 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>44343</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="8">
+        <v>44346</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud\Uni\Proseminare\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3174A-4F37-472D-93DA-C96726CF27DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AEBFC4-26FC-4FD1-B142-70B740EEF619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
   <si>
     <t>Datum</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>Fixen der GameController Tests</t>
+  </si>
+  <si>
+    <t>Proseminar</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramme</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramme und Code Refactoring</t>
   </si>
 </sst>
 </file>
@@ -623,10 +632,10 @@
   <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
@@ -1366,19 +1375,46 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="8">
+        <v>44347</v>
+      </c>
+      <c r="B53" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="8">
+        <v>44352</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="8">
+        <v>44353</v>
+      </c>
+      <c r="B55" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Aaron_Targa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cloud\Uni\Proseminare\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AEBFC4-26FC-4FD1-B142-70B740EEF619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6B1E3F-4583-41D1-8162-F70DD131AE3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Sequenzdiagramme und Code Refactoring</t>
+  </si>
+  <si>
+    <t>Ergänzung eines weiteren Sequenz diagramms</t>
+  </si>
+  <si>
+    <t>Verteilungsschicht Diagramm und Konzeptbeschreibung Update</t>
   </si>
 </sst>
 </file>
@@ -632,10 +638,10 @@
   <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.3"/>
@@ -1417,14 +1423,32 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B56" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B57" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="8"/>
